--- a/biology/Zoologie/Anthene/Anthene.xlsx
+++ b/biology/Zoologie/Anthene/Anthene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthene est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Anthene a été décrit par Doubleday en 1847. Son espèce type est Papilio larydas Cramer, [1780][1]. 
-Au sein des Polyommatinae, il est classé dans la petite tribu des Lycaenesthini[2].
-Il a plusieurs synonymes (dont certains sont parfois considérés comme des sous-genres[1] ou des genres distincts[2]) :
-Lycaenesthes Moore, [1866]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Anthene a été décrit par Doubleday en 1847. Son espèce type est Papilio larydas Cramer, . 
+Au sein des Polyommatinae, il est classé dans la petite tribu des Lycaenesthini.
+Il a plusieurs synonymes (dont certains sont parfois considérés comme des sous-genres ou des genres distincts) :
+Lycaenesthes Moore, 
 Triclema Karsch, 1893
 Neurypexina Bethune-Baker, 1910
 Neurellipes Bethune-Baker, 1910
@@ -549,9 +563,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont appelées Ciliate Blues et  Hairtails en anglais[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont appelées Ciliate Blues et  Hairtails en anglais,.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anthene sont majoritairement distribués en Afrique (une espèce se trouvant aussi à Madagascar), avec aussi quelques espèces en Asie du Sud et du Sud-Est, entre l'Inde et la Nouvelle-Guinée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anthene sont majoritairement distribués en Afrique (une espèce se trouvant aussi à Madagascar), avec aussi quelques espèces en Asie du Sud et du Sud-Est, entre l'Inde et la Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (6 février 2020)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (6 février 2020) :
 Sous-genre Anthene Doubleday, 1847
 Anthene rubricinctus (Holland, 1891)
 Anthene ituria (Bethune-Baker, 1910)
@@ -658,7 +678,7 @@
 Anthene amarah (Guérin-Méneville, 1849)
 Anthene arnoldi (Jones, 1918)
 Anthene madibirensis (Wichgraf, 1921)
-Anthene larydas (Cramer, [1780])
+Anthene larydas (Cramer, )
 Anthene kersteni (Gerstaecker, 1871)
 Anthene rothschildi (Aurivillius, 1922)
 Anthene crawshayi (Butler, 1899)
@@ -692,7 +712,7 @@
 Anthene flavomaculatus (Grose-Smith &amp; Kirby, 1893)
 Anthene bipuncta (Joicey &amp; Talbot, 1921)
 Anthene lychnides (Hewitson, 1878)
-Anthene emolus (Godart, [1824])
+Anthene emolus (Godart, )
 Anthene lycaenolus Tite, 1966
 Anthene philo (Hopffer, 1874)
 Anthene lycaenina (Felder, 1868)
